--- a/BusinessCredit.LoanManagementSystem.Web/Resources/TaxOrderTemplate.xlsx
+++ b/BusinessCredit.LoanManagementSystem.Web/Resources/TaxOrderTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BurnOut\Desktop\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BurnOut\Documents\Visual Studio 2015\Projects\BusinessCredit\BusinessCredit.LoanManagementSystem.Web\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ლილო" sheetId="3" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>სახელი</t>
   </si>
@@ -133,22 +133,10 @@
     <t>შპს ბიზნეს კრედიტი</t>
   </si>
   <si>
-    <t>სესხის ხელშეკრულება #[AgreementID]-ის საფუძველზე</t>
+    <t>სესხის ხელშეკრულება #____-ის საფუძველზე</t>
   </si>
   <si>
-    <t>[PaymentDate]</t>
-  </si>
-  <si>
-    <t>[Account.Name Account.LastName]</t>
-  </si>
-  <si>
-    <t>[Account.PrivateNumber]</t>
-  </si>
-  <si>
-    <t>[CashCollector.Name CashCollector.LastName]</t>
-  </si>
-  <si>
-    <t>CashCollector.PrivateNumber</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -11003,13 +10991,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11021,32 +11009,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -11066,20 +11042,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -11107,6 +11092,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10515">
@@ -24328,7 +24316,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D48" s="10" t="s">
         <v>12</v>
       </c>
@@ -24385,8 +24373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24425,70 +24413,66 @@
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="47">
         <v>402000179</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="47">
         <v>402000179</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
       <c r="G5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="25">
-        <v>2</v>
-      </c>
+      <c r="H5" s="25"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
@@ -24497,34 +24481,29 @@
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
       <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="22" t="str">
-        <f>B6</f>
-        <v>[PaymentDate]</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -24554,299 +24533,280 @@
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="G9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="G11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="G12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="16"/>
       <c r="G13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="G15" s="43" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="G15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="G18" s="43" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="17" t="str">
-        <f>E20</f>
-        <v>CashCollector.PrivateNumber</v>
-      </c>
+      <c r="A20" s="42"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="34" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="G24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="G25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="22">
         <v>402000179</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="G26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="22">
         <v>402000179</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="25">
-        <v>3</v>
-      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
       <c r="G28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="25">
-        <v>4</v>
-      </c>
+      <c r="H28" s="25"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="27"/>
@@ -24855,35 +24815,29 @@
       <c r="A29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="22" t="str">
-        <f>H6</f>
-        <v>[PaymentDate]</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
       <c r="G29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="22" t="str">
-        <f>B29</f>
-        <v>[PaymentDate]</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -24913,243 +24867,239 @@
       <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
       <c r="G32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="36"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
       <c r="G34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
       <c r="G35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="16"/>
       <c r="G36" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
-      <c r="G38" s="43" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+      <c r="G38" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-      <c r="G41" s="43" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="G41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="39"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="17" t="str">
-        <f>E20</f>
-        <v>CashCollector.PrivateNumber</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="17" t="str">
-        <f>E43</f>
-        <v>CashCollector.PrivateNumber</v>
-      </c>
+      <c r="A43" s="42"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="17"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="28" t="s">
+      <c r="G44" s="32"/>
+      <c r="H44" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="21" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:G16"/>
@@ -25166,45 +25116,31 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="G24:K24"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:E42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.21" top="0.65" bottom="0.43307086614173229" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
